--- a/temp/templateteachers (1).xlsx
+++ b/temp/templateteachers (1).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C306E3C-9F5C-41D2-9987-6753368CF1DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81EF1E7-5214-4ED9-BE5A-A27A074AEAD4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="profesor" sheetId="1" r:id="rId1"/>
+    <sheet name="teacher" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>DNI</t>
   </si>
@@ -63,17 +64,44 @@
     <t>Especialidad</t>
   </si>
   <si>
-    <t>Yo mismo</t>
-  </si>
-  <si>
-    <t>Soy</t>
+    <t>ProgramID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Programa De Estudios</t>
+  </si>
+  <si>
+    <t>mecanica</t>
+  </si>
+  <si>
+    <t>Como Sa</t>
+  </si>
+  <si>
+    <t>Nombnre SA</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Av. Lllll</t>
+  </si>
+  <si>
+    <t>cjdsh</t>
+  </si>
+  <si>
+    <t>jhbj</t>
+  </si>
+  <si>
+    <t>Sin Especialidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +111,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,11 +144,12 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,76 +463,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6DA9A-814C-4995-A371-4356F22A5A66}">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>58001547</v>
+        <v>165165165</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>51651</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>